--- a/results/OECD_QSAR_Toolbox_Prediction_Results/OECD_QSAR_Predictions Summary Results.xlsx
+++ b/results/OECD_QSAR_Toolbox_Prediction_Results/OECD_QSAR_Predictions Summary Results.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricat/Documents/GitHub/StopTox-External-Validation/results/OECD_QSAR_Toolbox_Prediction_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CC7963-CB4F-364F-9B04-63D820E6490F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57A509F-D8BA-1A41-98AB-8B9D0753B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42100" yWindow="1040" windowWidth="38400" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,12 +193,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,7 +544,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -549,21 +556,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -577,7 +584,7 @@
       <c r="C3" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>6</v>
       </c>
     </row>
@@ -591,7 +598,7 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -605,7 +612,7 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -619,7 +626,7 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -633,7 +640,7 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>9</v>
       </c>
     </row>
@@ -647,7 +654,7 @@
       <c r="C8" s="2">
         <v>0.85714285714285698</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="2">
         <v>0.66666666666666596</v>
       </c>
     </row>
@@ -661,7 +668,7 @@
       <c r="C9" s="2">
         <v>0.75</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -675,7 +682,7 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -689,7 +696,7 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -743,7 +750,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
     </row>
